--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl13-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Cxcl13</t>
+  </si>
+  <si>
+    <t>Cxcr3</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl13</t>
-  </si>
-  <si>
-    <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H2">
         <v>23.303222</v>
       </c>
       <c r="I2">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J2">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7166990000000001</v>
+        <v>0.358189</v>
       </c>
       <c r="N2">
-        <v>2.150097</v>
+        <v>0.716378</v>
       </c>
       <c r="O2">
-        <v>0.2276207788704612</v>
+        <v>0.052978466298774</v>
       </c>
       <c r="P2">
-        <v>0.2276207788704611</v>
+        <v>0.03595390511601538</v>
       </c>
       <c r="Q2">
-        <v>5.567131968059335</v>
+        <v>2.782319261652666</v>
       </c>
       <c r="R2">
-        <v>50.10418771253401</v>
+        <v>16.693915569916</v>
       </c>
       <c r="S2">
-        <v>0.2249049112140256</v>
+        <v>0.05074042404047897</v>
       </c>
       <c r="T2">
-        <v>0.2249049112140256</v>
+        <v>0.03492687618934049</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.767740666666668</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H3">
         <v>23.303222</v>
       </c>
       <c r="I3">
-        <v>0.9880684546028148</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J3">
-        <v>0.9880684546028148</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.431954666666666</v>
+        <v>0.574863</v>
       </c>
       <c r="N3">
-        <v>7.295864</v>
+        <v>1.724589</v>
       </c>
       <c r="O3">
-        <v>0.7723792211295388</v>
+        <v>0.08502595018806307</v>
       </c>
       <c r="P3">
-        <v>0.7723792211295388</v>
+        <v>0.08655445766079338</v>
       </c>
       <c r="Q3">
-        <v>18.89079316375645</v>
+        <v>4.465386702861999</v>
       </c>
       <c r="R3">
-        <v>170.017138473808</v>
+        <v>40.18848032575799</v>
       </c>
       <c r="S3">
-        <v>0.7631635433887892</v>
+        <v>0.08143408196561555</v>
       </c>
       <c r="T3">
-        <v>0.7631635433887892</v>
+        <v>0.08408201603133894</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,60 +658,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09380033333333333</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H4">
-        <v>0.281401</v>
+        <v>23.303222</v>
       </c>
       <c r="I4">
-        <v>0.01193154539718527</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J4">
-        <v>0.01193154539718528</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7166990000000001</v>
+        <v>5.590969</v>
       </c>
       <c r="N4">
-        <v>2.150097</v>
+        <v>16.772907</v>
       </c>
       <c r="O4">
-        <v>0.2276207788704612</v>
+        <v>0.8269404217996371</v>
       </c>
       <c r="P4">
-        <v>0.2276207788704611</v>
+        <v>0.8418062905306279</v>
       </c>
       <c r="Q4">
-        <v>0.06722660509966667</v>
+        <v>43.42919726737266</v>
       </c>
       <c r="R4">
-        <v>0.6050394458970001</v>
+        <v>390.862775406354</v>
       </c>
       <c r="S4">
-        <v>0.002715867656435578</v>
+        <v>0.792006839565628</v>
       </c>
       <c r="T4">
-        <v>0.002715867656435578</v>
+        <v>0.8177599620930884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09380033333333333</v>
+        <v>7.767740666666666</v>
       </c>
       <c r="H5">
-        <v>0.281401</v>
+        <v>23.303222</v>
       </c>
       <c r="I5">
-        <v>0.01193154539718527</v>
+        <v>0.957755623847744</v>
       </c>
       <c r="J5">
-        <v>0.01193154539718528</v>
+        <v>0.9714348434930534</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +747,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.431954666666666</v>
+        <v>0.237009</v>
       </c>
       <c r="N5">
-        <v>7.295864</v>
+        <v>0.7110270000000001</v>
       </c>
       <c r="O5">
-        <v>0.7723792211295388</v>
+        <v>0.0350551617135259</v>
       </c>
       <c r="P5">
-        <v>0.7723792211295388</v>
+        <v>0.03568534669256324</v>
       </c>
       <c r="Q5">
-        <v>0.2281181583848889</v>
+        <v>1.841024447666</v>
       </c>
       <c r="R5">
-        <v>2.053063425464</v>
+        <v>16.569220028994</v>
       </c>
       <c r="S5">
-        <v>0.009215677740749696</v>
+        <v>0.03357427827602155</v>
       </c>
       <c r="T5">
-        <v>0.009215677740749698</v>
+        <v>0.03466598917928553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.342617</v>
+      </c>
+      <c r="H6">
+        <v>0.685234</v>
+      </c>
+      <c r="I6">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J6">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.358189</v>
+      </c>
+      <c r="N6">
+        <v>0.716378</v>
+      </c>
+      <c r="O6">
+        <v>0.052978466298774</v>
+      </c>
+      <c r="P6">
+        <v>0.03595390511601538</v>
+      </c>
+      <c r="Q6">
+        <v>0.122721640613</v>
+      </c>
+      <c r="R6">
+        <v>0.490886562452</v>
+      </c>
+      <c r="S6">
+        <v>0.002238042258295027</v>
+      </c>
+      <c r="T6">
+        <v>0.001027028926674884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.342617</v>
+      </c>
+      <c r="H7">
+        <v>0.685234</v>
+      </c>
+      <c r="I7">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J7">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.574863</v>
+      </c>
+      <c r="N7">
+        <v>1.724589</v>
+      </c>
+      <c r="O7">
+        <v>0.08502595018806307</v>
+      </c>
+      <c r="P7">
+        <v>0.08655445766079338</v>
+      </c>
+      <c r="Q7">
+        <v>0.196957836471</v>
+      </c>
+      <c r="R7">
+        <v>1.181747018826</v>
+      </c>
+      <c r="S7">
+        <v>0.003591868222447519</v>
+      </c>
+      <c r="T7">
+        <v>0.002472441629454438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.342617</v>
+      </c>
+      <c r="H8">
+        <v>0.685234</v>
+      </c>
+      <c r="I8">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J8">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.590969</v>
+      </c>
+      <c r="N8">
+        <v>16.772907</v>
+      </c>
+      <c r="O8">
+        <v>0.8269404217996371</v>
+      </c>
+      <c r="P8">
+        <v>0.8418062905306279</v>
+      </c>
+      <c r="Q8">
+        <v>1.915561025873</v>
+      </c>
+      <c r="R8">
+        <v>11.493366155238</v>
+      </c>
+      <c r="S8">
+        <v>0.03493358223400912</v>
+      </c>
+      <c r="T8">
+        <v>0.02404632843753947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.342617</v>
+      </c>
+      <c r="H9">
+        <v>0.685234</v>
+      </c>
+      <c r="I9">
+        <v>0.04224437615225601</v>
+      </c>
+      <c r="J9">
+        <v>0.02856515650694651</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.237009</v>
+      </c>
+      <c r="N9">
+        <v>0.7110270000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.0350551617135259</v>
+      </c>
+      <c r="P9">
+        <v>0.03568534669256324</v>
+      </c>
+      <c r="Q9">
+        <v>0.08120331255300001</v>
+      </c>
+      <c r="R9">
+        <v>0.487219875318</v>
+      </c>
+      <c r="S9">
+        <v>0.001480883437504352</v>
+      </c>
+      <c r="T9">
+        <v>0.001019357513277715</v>
       </c>
     </row>
   </sheetData>
